--- a/results/09-2023/comparison-deflators-09-2023.xlsx
+++ b/results/09-2023/comparison-deflators-09-2023.xlsx
@@ -566,28 +566,28 @@
         <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0157</v>
+        <v>0.0153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0137</v>
+        <v>0.0138</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0151</v>
+        <v>0.0165</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0182</v>
+        <v>0.0186</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0178</v>
+        <v>0.0175</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0106</v>
+        <v>0.0115</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0092</v>
+        <v>0.0102</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0101</v>
+        <v>0.0103</v>
       </c>
       <c r="K2" t="n">
         <v>0.0062</v>
@@ -690,37 +690,37 @@
         <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0421</v>
+        <v>0.0416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1851</v>
+        <v>0.1832</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0475</v>
+        <v>0.0467</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0343</v>
+        <v>-0.0341</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0253</v>
+        <v>0.0248</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0246</v>
+        <v>0.0242</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0365</v>
+        <v>-0.0364</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0355</v>
+        <v>-0.0353</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0007</v>
+        <v>-0.0009</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0007</v>
+        <v>-0.0009</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0075</v>
+        <v>-0.0076</v>
       </c>
       <c r="N4" t="n">
         <v>-0.0074</v>
@@ -729,19 +729,19 @@
         <v>-0.0179</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0683</v>
+        <v>-0.0678</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0296</v>
+        <v>-0.0294</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.0286</v>
+        <v>-0.0284</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.027</v>
+        <v>-0.0268</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0263</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="5">
@@ -752,58 +752,58 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0128</v>
+        <v>-0.1191</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6927</v>
+        <v>-0.6457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1686</v>
+        <v>0.3213</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1256</v>
+        <v>-0.2096</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4365</v>
+        <v>0.4212</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1787</v>
+        <v>-0.3109</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4349</v>
+        <v>-0.1707</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308</v>
+        <v>0.0933</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1969</v>
+        <v>-0.1747</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.186</v>
+        <v>-0.1378</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1945</v>
+        <v>-0.1926</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3951</v>
+        <v>-0.3912</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.4939</v>
+        <v>-0.4891</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.143</v>
+        <v>-0.1416</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1426</v>
+        <v>-0.1412</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.46</v>
+        <v>-0.4555</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.4584</v>
+        <v>-0.4539</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1227</v>
+        <v>-0.1215</v>
       </c>
     </row>
     <row r="6">
@@ -814,58 +814,58 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0173</v>
+        <v>-0.0167</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0199</v>
+        <v>-0.0225</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04</v>
+        <v>-0.0488</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0509</v>
+        <v>-0.0712</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1279</v>
+        <v>0.1062</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0301</v>
+        <v>-0.0456</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3153</v>
+        <v>0.2944</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2814</v>
+        <v>0.257</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3319</v>
+        <v>0.3454</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3106</v>
+        <v>0.322</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2054</v>
+        <v>0.2069</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0771</v>
+        <v>-0.0731</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1953</v>
+        <v>-0.1906</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1772</v>
+        <v>-0.174</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.244</v>
+        <v>-0.2324</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1845</v>
+        <v>-0.1648</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.1351</v>
+        <v>-0.1131</v>
       </c>
     </row>
     <row r="7">
@@ -876,58 +876,58 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0481</v>
+        <v>-0.0053</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1533</v>
+        <v>0.1156</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0452</v>
+        <v>0.0629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0595</v>
+        <v>0.1572</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0847</v>
+        <v>0.0108</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0916</v>
+        <v>-0.0442</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0648</v>
+        <v>-0.1304</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.04</v>
+        <v>-0.1586</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0647</v>
+        <v>-0.0822</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0083</v>
+        <v>-0.0427</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0386</v>
+        <v>-0.02</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1277</v>
+        <v>-0.062</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.126</v>
+        <v>-0.0524</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0625</v>
+        <v>-0.0619</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0066</v>
+        <v>0.0065</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0712</v>
+        <v>0.0705</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1177</v>
+        <v>0.1165</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1641</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="8">
@@ -938,58 +938,58 @@
         <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4116</v>
+        <v>-0.5022</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4139</v>
+        <v>-0.4732</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4064</v>
+        <v>-0.4268</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8843</v>
+        <v>-0.7124</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.0047</v>
+        <v>-0.7669</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5968</v>
+        <v>-0.3895</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3681</v>
+        <v>-0.1465</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2526</v>
+        <v>0.5451</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3134</v>
+        <v>0.5705</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1311</v>
+        <v>0.0398</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1561</v>
+        <v>0.056</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4183</v>
+        <v>0.3869</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3973</v>
+        <v>0.3321</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4102</v>
+        <v>0.3204</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2994</v>
+        <v>0.1878</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0696</v>
+        <v>-0.0779</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0846</v>
+        <v>-0.0578</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0789</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="9">
@@ -1000,58 +1000,58 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.039</v>
+        <v>-0.0386</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0094</v>
+        <v>0.0092</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0857</v>
+        <v>0.0846</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0555</v>
+        <v>0.0547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0341</v>
+        <v>0.0337</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0637</v>
+        <v>-0.0631</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0649</v>
+        <v>-0.0644</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0476</v>
+        <v>-0.0473</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1032</v>
+        <v>-0.1022</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0365</v>
+        <v>-0.0363</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.024</v>
+        <v>-0.0239</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0265</v>
+        <v>-0.0263</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0206</v>
+        <v>-0.0205</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0217</v>
+        <v>-0.0216</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0302</v>
+        <v>-0.03</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0211</v>
+        <v>-0.0209</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.0162</v>
+        <v>-0.0161</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.011</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="10">
@@ -1062,58 +1062,58 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1216</v>
+        <v>0.1201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1362</v>
+        <v>0.1348</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1456</v>
+        <v>0.1437</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1261</v>
+        <v>0.1243</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0852</v>
+        <v>0.084</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0492</v>
+        <v>0.0483</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0368</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0899</v>
+        <v>-0.0892</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0971</v>
+        <v>-0.0964</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0961</v>
+        <v>-0.0954</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0985</v>
+        <v>-0.0976</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0633</v>
+        <v>-0.0627</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0499</v>
+        <v>-0.0495</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0442</v>
+        <v>-0.0438</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0264</v>
+        <v>-0.0261</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0105</v>
+        <v>-0.0104</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.01</v>
+        <v>-0.0099</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.0085</v>
+        <v>-0.0084</v>
       </c>
     </row>
     <row r="11">
@@ -1124,31 +1124,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0167</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.0102</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0107</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0118</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0078</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0079</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.0058</v>
+        <v>0.0051</v>
       </c>
       <c r="L11" t="n">
         <v>0.0083</v>
@@ -1186,58 +1186,58 @@
         <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0437</v>
+        <v>-0.0501</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0434</v>
+        <v>-0.0511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1964</v>
+        <v>0.1825</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9292</v>
+        <v>-0.9278</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2428</v>
+        <v>-0.2513</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.8431</v>
+        <v>-0.8492</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4818</v>
+        <v>-0.4895</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0463</v>
+        <v>0.0351</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0841</v>
+        <v>0.0715</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1334</v>
+        <v>0.1259</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0722</v>
+        <v>-0.0718</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1594</v>
+        <v>-0.1573</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.077</v>
+        <v>-0.0762</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0709</v>
+        <v>-0.0702</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0377</v>
+        <v>-0.0374</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0742</v>
+        <v>-0.0734</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0723</v>
+        <v>-0.0716</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0693</v>
+        <v>-0.0686</v>
       </c>
     </row>
     <row r="13">
@@ -1248,55 +1248,55 @@
         <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0646</v>
+        <v>0.0637</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0296</v>
+        <v>0.0292</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0274</v>
+        <v>0.0267</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0173</v>
+        <v>0.0168</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0131</v>
+        <v>-0.0132</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0124</v>
+        <v>-0.0126</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0118</v>
+        <v>-0.012</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0109</v>
+        <v>-0.0111</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0095</v>
+        <v>-0.0096</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1368</v>
+        <v>-0.1357</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1146</v>
+        <v>-0.1135</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.104</v>
+        <v>-0.103</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0952</v>
+        <v>-0.0943</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0561</v>
+        <v>-0.0556</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0305</v>
+        <v>-0.0302</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0302</v>
+        <v>-0.0299</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0238</v>
+        <v>-0.0235</v>
       </c>
       <c r="T13" t="n">
         <v>0.0002</v>
@@ -1310,58 +1310,58 @@
         <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>0.399</v>
+        <v>0.3926</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2365</v>
+        <v>0.2349</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0296</v>
+        <v>0.0321</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0604</v>
+        <v>-0.0559</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0848</v>
+        <v>-0.0809</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0844</v>
+        <v>-0.083</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0471</v>
+        <v>-0.0507</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.041</v>
+        <v>-0.0453</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.5068</v>
+        <v>-0.505</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.5769</v>
+        <v>-0.572</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2266</v>
+        <v>-0.2242</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1789</v>
+        <v>-0.1769</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.3218</v>
+        <v>-0.3189</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2396</v>
+        <v>-0.2388</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1042</v>
+        <v>-0.1058</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0329</v>
+        <v>-0.0358</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.0263</v>
+        <v>-0.0291</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.0193</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="15">
@@ -1372,37 +1372,37 @@
         <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0755</v>
+        <v>0.0732</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9745</v>
+        <v>-0.9657</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.0374</v>
+        <v>-1.027</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9616</v>
+        <v>-0.9508</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.4202</v>
+        <v>-1.405</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.9659</v>
+        <v>-0.9558</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3967</v>
+        <v>-0.393</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3917</v>
+        <v>-0.3878</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2839</v>
+        <v>-0.2812</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1294</v>
+        <v>-0.1284</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0076</v>
+        <v>-0.0075</v>
       </c>
       <c r="N15" t="n">
         <v>-0.0014</v>
@@ -1434,58 +1434,58 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.0761</v>
+        <v>-2.4471</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.4954</v>
+        <v>-2.9732</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.1028</v>
+        <v>-3.1863</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.8579</v>
+        <v>-3.8062</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.8431</v>
+        <v>-4.5576</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.3359</v>
+        <v>-2.1794</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9889</v>
+        <v>-0.502</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2775</v>
+        <v>0.2504</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2151</v>
+        <v>-0.245</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1467</v>
+        <v>0.0549</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1349</v>
+        <v>-0.1222</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.5118</v>
+        <v>-0.4576</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3448</v>
+        <v>-0.3208</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.395</v>
+        <v>-0.4019</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.2597</v>
+        <v>-0.2822</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.4655</v>
+        <v>-0.4974</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.5068</v>
+        <v>-0.5315</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.2111</v>
+        <v>-0.1686</v>
       </c>
     </row>
     <row r="17">
@@ -1496,58 +1496,58 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>23046.9</v>
+        <v>23292.4</v>
       </c>
       <c r="D17" t="n">
-        <v>23550.4</v>
+        <v>23829</v>
       </c>
       <c r="E17" t="n">
-        <v>24349.1</v>
+        <v>24654.6</v>
       </c>
       <c r="F17" t="n">
-        <v>24740.5</v>
+        <v>25029.1</v>
       </c>
       <c r="G17" t="n">
-        <v>25248.5</v>
+        <v>25544.3</v>
       </c>
       <c r="H17" t="n">
-        <v>25723.9</v>
+        <v>25994.6</v>
       </c>
       <c r="I17" t="n">
-        <v>26138</v>
+        <v>26408.4</v>
       </c>
       <c r="J17" t="n">
-        <v>26529.8</v>
+        <v>26813.6</v>
       </c>
       <c r="K17" t="n">
-        <v>26798.6</v>
+        <v>27063</v>
       </c>
       <c r="L17" t="n">
-        <v>27029.9185</v>
+        <v>27296.6007</v>
       </c>
       <c r="M17" t="n">
-        <v>27301.5903</v>
+        <v>27570.9529</v>
       </c>
       <c r="N17" t="n">
-        <v>27613.8192</v>
+        <v>27886.2623</v>
       </c>
       <c r="O17" t="n">
-        <v>27943.7792</v>
+        <v>28219.4778</v>
       </c>
       <c r="P17" t="n">
-        <v>28280.4648</v>
+        <v>28559.4851</v>
       </c>
       <c r="Q17" t="n">
-        <v>28629.0729</v>
+        <v>28911.5327</v>
       </c>
       <c r="R17" t="n">
-        <v>28984.3047</v>
+        <v>29270.2692</v>
       </c>
       <c r="S17" t="n">
-        <v>29331.0786</v>
+        <v>29620.4645</v>
       </c>
       <c r="T17" t="n">
-        <v>29672.9611</v>
+        <v>29965.7201</v>
       </c>
     </row>
     <row r="18">
@@ -1558,58 +1558,58 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6692</v>
+        <v>0.6755</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0325</v>
+        <v>-0.0235</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3023</v>
+        <v>0.3194</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3706</v>
+        <v>0.3919</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7885</v>
+        <v>0.8018</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3021</v>
+        <v>-0.2722</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6923</v>
+        <v>-0.6609</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.141</v>
+        <v>-0.1246</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1584</v>
+        <v>-0.1315</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1351</v>
+        <v>-0.1338</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0606</v>
+        <v>-0.06</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.2616</v>
+        <v>-0.2591</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.3746</v>
+        <v>-0.371</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.017</v>
+        <v>-0.0168</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0097</v>
+        <v>0.0096</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.3166</v>
+        <v>-0.3135</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1953</v>
+        <v>-0.1934</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0385</v>
+        <v>-0.0382</v>
       </c>
     </row>
     <row r="19">
@@ -1682,40 +1682,40 @@
         <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.0363</v>
+        <v>-1.0217</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0482</v>
+        <v>-0.0466</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.1582</v>
+        <v>-1.1437</v>
       </c>
       <c r="F20" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.0222</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.0329</v>
       </c>
-      <c r="G20" t="n">
-        <v>-0.023</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.0338</v>
-      </c>
       <c r="I20" t="n">
-        <v>-0.0218</v>
+        <v>-0.0212</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0215</v>
+        <v>-0.0208</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.4277</v>
+        <v>-0.4227</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0127</v>
+        <v>-0.0123</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0126</v>
+        <v>-0.0122</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.6091</v>
+        <v>-0.6029</v>
       </c>
       <c r="O20" t="n">
         <v>-0.0001</v>
@@ -1724,7 +1724,7 @@
         <v>-0.0001</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.0062</v>
+        <v>-0.0061</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -1744,34 +1744,34 @@
         <v>21</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2662</v>
+        <v>-0.2616</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.0954</v>
+        <v>-1.0835</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3709</v>
+        <v>-0.3665</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0609</v>
+        <v>-0.0599</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.0046</v>
+        <v>-0.9928</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0302</v>
+        <v>-0.0298</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0203</v>
+        <v>-0.02</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.5175</v>
+        <v>-0.5121</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2502</v>
+        <v>-0.2476</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0332</v>
+        <v>-0.0329</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1806,58 +1806,58 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.934</v>
+        <v>-1.0517</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3055</v>
+        <v>0.0181</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.7016</v>
+        <v>-0.729</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6304</v>
+        <v>-0.6593</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.062</v>
+        <v>-1.096</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5116</v>
+        <v>0.485</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7872</v>
+        <v>0.7754</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4279</v>
+        <v>0.4335</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.4357</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0924</v>
+        <v>0.2916</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0445</v>
+        <v>0.044</v>
       </c>
       <c r="N22" t="n">
-        <v>0.222</v>
+        <v>0.2198</v>
       </c>
       <c r="O22" t="n">
-        <v>0.314</v>
+        <v>0.311</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0628</v>
+        <v>-0.0621</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1095</v>
+        <v>-0.1085</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2146</v>
+        <v>0.2125</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1062</v>
+        <v>0.1052</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.0687</v>
+        <v>-0.068</v>
       </c>
     </row>
     <row r="23">
@@ -1868,58 +1868,58 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0123</v>
+        <v>-0.0156</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0135</v>
+        <v>-0.0231</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0204</v>
+        <v>-0.0418</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0433</v>
+        <v>-0.052</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0103</v>
+        <v>-0.027</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0052</v>
+        <v>-0.0272</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0139</v>
+        <v>-0.0346</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0219</v>
+        <v>-0.0422</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0024</v>
+        <v>-0.0308</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0089</v>
+        <v>0.0107</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0119</v>
+        <v>0.0131</v>
       </c>
       <c r="N23" t="n">
-        <v>0.013</v>
+        <v>0.0146</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0132</v>
+        <v>0.0179</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0142</v>
+        <v>0.0246</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0199</v>
+        <v>0.0403</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0432</v>
+        <v>0.0528</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0142</v>
+        <v>0.0309</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0086</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="24">
@@ -1930,58 +1930,58 @@
         <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2405</v>
+        <v>0.2373</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0514</v>
+        <v>-0.0477</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0074</v>
+        <v>-0.0185</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1509</v>
+        <v>-0.0866</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1271</v>
+        <v>-0.0486</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1438</v>
+        <v>-0.0466</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0473</v>
+        <v>0.0812</v>
       </c>
       <c r="J24" t="n">
-        <v>0.099</v>
+        <v>0.1004</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1091</v>
+        <v>0.1214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1847</v>
+        <v>0.0755</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1472</v>
+        <v>0.0436</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0806</v>
+        <v>-0.0165</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.0325</v>
+        <v>-0.129</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0552</v>
+        <v>-0.0546</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.0553</v>
+        <v>-0.0548</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.0555</v>
+        <v>-0.055</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.0429</v>
+        <v>-0.0425</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.0307</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="25">
@@ -1992,58 +1992,58 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1088</v>
+        <v>-0.127</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0208</v>
+        <v>-0.0725</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0184</v>
+        <v>-0.1451</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0166</v>
+        <v>-0.1689</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0505</v>
+        <v>-0.1617</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0614</v>
+        <v>0.0432</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1163</v>
+        <v>0.0981</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2519</v>
+        <v>0.142</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3912</v>
+        <v>0.3117</v>
       </c>
       <c r="L25" t="n">
-        <v>0.251</v>
+        <v>0.4146</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2128</v>
+        <v>0.3923</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2085</v>
+        <v>0.3123</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1906</v>
+        <v>0.2904</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1778</v>
+        <v>0.2399</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1394</v>
+        <v>0.203</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0697</v>
+        <v>0.1629</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0098</v>
+        <v>0.0896</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0111</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="26">
@@ -2054,31 +2054,31 @@
         <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0206</v>
+        <v>0.0185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.017</v>
+        <v>0.0158</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0219</v>
+        <v>0.0191</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0254</v>
+        <v>0.022</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0355</v>
+        <v>0.0328</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0072</v>
+        <v>0.0042</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0096</v>
+        <v>0.0068</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0041</v>
+        <v>-0.0072</v>
       </c>
       <c r="L26" t="n">
         <v>0.0063</v>
@@ -2116,31 +2116,31 @@
         <v>21</v>
       </c>
       <c r="C27" t="n">
-        <v>165.3</v>
+        <v>162.3</v>
       </c>
       <c r="D27" t="n">
-        <v>169.9</v>
+        <v>166.4</v>
       </c>
       <c r="E27" t="n">
-        <v>170.2</v>
+        <v>166.8</v>
       </c>
       <c r="F27" t="n">
-        <v>171.6</v>
+        <v>169.1</v>
       </c>
       <c r="G27" t="n">
-        <v>173.2</v>
+        <v>176.6</v>
       </c>
       <c r="H27" t="n">
-        <v>196.8</v>
+        <v>196.5</v>
       </c>
       <c r="I27" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="J27" t="n">
-        <v>183.8</v>
+        <v>184.2</v>
       </c>
       <c r="K27" t="n">
-        <v>175.5</v>
+        <v>176.1</v>
       </c>
       <c r="L27" t="n">
         <v>189.3096</v>
@@ -2178,7 +2178,7 @@
         <v>21</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0068</v>
+        <v>0.0067</v>
       </c>
       <c r="D28" t="n">
         <v>-0.0011</v>
@@ -2211,10 +2211,10 @@
         <v>-0.0006</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.0015</v>
+        <v>-0.0014</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.0044</v>
+        <v>-0.0043</v>
       </c>
       <c r="P28" t="n">
         <v>-0.0004</v>
@@ -2240,58 +2240,58 @@
         <v>21</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2083</v>
+        <v>-0.1554</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2194</v>
+        <v>-0.2608</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1272</v>
+        <v>-0.1429</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1239</v>
+        <v>-0.1394</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2216</v>
+        <v>-0.1948</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1072</v>
+        <v>-0.0977</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0474</v>
+        <v>-0.0459</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0269</v>
+        <v>-0.0504</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.014</v>
+        <v>-0.0197</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0031</v>
+        <v>0.0006</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0046</v>
+        <v>0.0024</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0103</v>
+        <v>0.0095</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0118</v>
+        <v>0.0113</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0125</v>
+        <v>0.0115</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0105</v>
+        <v>0.0109</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0089</v>
+        <v>0.0092</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0041</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="30">
@@ -2302,31 +2302,31 @@
         <v>49</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2426,58 +2426,58 @@
         <v>49</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="33">
@@ -2488,58 +2488,58 @@
         <v>49</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-0.1319</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.1526</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-0.0841</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-0.0153</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-0.1322</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.2642</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>-0.0375</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0482</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="34">
@@ -2550,58 +2550,58 @@
         <v>49</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.0026</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-0.0088</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-0.0202</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-0.0217</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-0.0156</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-0.0209</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.0244</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0135</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0114</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.0197</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="35">
@@ -2612,58 +2612,58 @@
         <v>49</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0.0534</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-0.0377</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.0177</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.0977</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0955</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.0475</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-0.0656</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-0.1185</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.1469</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0345</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0186</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.0657</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.0736</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="36">
@@ -2674,58 +2674,58 @@
         <v>49</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-0.0906</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-0.0593</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.0205</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.2378</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.2073</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.2216</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.2925</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.2571</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0913</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-0.1001</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.0314</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>-0.0652</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>-0.0898</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>-0.1116</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-0.1475</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>-0.1423</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="37">
@@ -2736,58 +2736,58 @@
         <v>49</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="38">
@@ -2798,58 +2798,58 @@
         <v>49</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-0.0019</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-0.0012</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="39">
@@ -2860,31 +2860,31 @@
         <v>49</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2922,58 +2922,58 @@
         <v>49</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-0.0064</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-0.0077</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-0.0139</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-0.0085</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-0.0061</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-0.0077</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-0.0112</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-0.0125</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-0.0076</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="41">
@@ -2984,55 +2984,55 @@
         <v>49</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3046,58 +3046,58 @@
         <v>49</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-0.0065</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-0.0036</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>-0.0043</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="43">
@@ -3108,37 +3108,37 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-0.0023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.0088</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.0103</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.0108</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0153</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3170,58 +3170,58 @@
         <v>49</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-0.371</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-0.4777</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-0.0834</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.0517</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.2855</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.1564</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4869</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-0.0271</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-0.0299</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.2017</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.0127</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.0543</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>0.0241</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-0.0069</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>-0.0225</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-0.0319</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-0.0246</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="45">
@@ -3232,58 +3232,58 @@
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>245.5</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>278.6</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>305.5</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>288.6</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>295.8</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>270.7</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>270.4</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>283.8</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>266.6822</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>269.3626</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>272.4431</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>275.6986</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>279.0204</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>282.4598</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>285.9646</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>289.3859</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>292.759</v>
       </c>
     </row>
     <row r="46">
@@ -3294,58 +3294,58 @@
         <v>49</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.009</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0133</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.0299</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.0314</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.0269</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="47">
@@ -3418,40 +3418,40 @@
         <v>49</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.0146</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.0145</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -3480,34 +3480,34 @@
         <v>49</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3542,58 +3542,58 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-0.1177</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-0.2873</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-0.0273</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>-0.0288</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>-0.034</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>-0.0267</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>-0.0117</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-0.0272</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.1992</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="51">
@@ -3604,58 +3604,58 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-0.0033</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-0.0096</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-0.0214</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>-0.0087</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>-0.0167</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>-0.0219</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>-0.0206</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>-0.0203</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-0.0285</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>0.0104</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="52">
@@ -3666,58 +3666,58 @@
         <v>49</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.0111</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.0643</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.0785</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>0.0972</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.1285</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>-0.1092</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>-0.1036</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>-0.0971</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>-0.0965</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="53">
@@ -3728,58 +3728,58 @@
         <v>49</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-0.0182</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-0.0933</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-0.1634</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>-0.1523</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>-0.1112</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>-0.0182</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>-0.0181</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>-0.11</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-0.0795</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.1636</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.1795</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>0.1039</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>0.0997</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>0.0621</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>0.0637</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>0.0931</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>0.0798</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="54">
@@ -3790,31 +3790,31 @@
         <v>49</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>-0.0012</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>-0.0034</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>-0.0027</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3852,31 +3852,31 @@
         <v>49</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>49</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3976,55 +3976,55 @@
         <v>49</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.0529</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-0.0414</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>-0.0157</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>-0.0155</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>-0.0235</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>-0.0025</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>

--- a/results/09-2023/comparison-deflators-09-2023.xlsx
+++ b/results/09-2023/comparison-deflators-09-2023.xlsx
@@ -752,58 +752,58 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1191</v>
+        <v>-0.3178</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6457</v>
+        <v>-0.4967</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3213</v>
+        <v>0.2011</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2096</v>
+        <v>-0.153</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4212</v>
+        <v>0.3921</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3109</v>
+        <v>-0.3316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1707</v>
+        <v>-0.2298</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0933</v>
+        <v>0.0993</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1747</v>
+        <v>-0.1753</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1378</v>
+        <v>-0.184</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1926</v>
+        <v>-0.1921</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3912</v>
+        <v>-0.3907</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.4891</v>
+        <v>-0.4886</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1416</v>
+        <v>-0.1412</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1412</v>
+        <v>-0.1407</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.4555</v>
+        <v>-0.455</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.4539</v>
+        <v>-0.4533</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1215</v>
+        <v>-0.1212</v>
       </c>
     </row>
     <row r="6">
@@ -841,31 +841,31 @@
         <v>0.257</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3454</v>
+        <v>0.3099</v>
       </c>
       <c r="M6" t="n">
-        <v>0.322</v>
+        <v>0.2871</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2069</v>
+        <v>0.1728</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0731</v>
+        <v>-0.1066</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1906</v>
+        <v>-0.2234</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.174</v>
+        <v>-0.2062</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2324</v>
+        <v>-0.2641</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1648</v>
+        <v>-0.1959</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.1131</v>
+        <v>-0.1437</v>
       </c>
     </row>
     <row r="7">
@@ -903,31 +903,31 @@
         <v>-0.0822</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0427</v>
+        <v>-0.1594</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02</v>
+        <v>-0.1351</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.062</v>
+        <v>-0.1755</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0524</v>
+        <v>-0.1778</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0619</v>
+        <v>-0.0863</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0065</v>
+        <v>-0.0092</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0705</v>
+        <v>0.0632</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1165</v>
+        <v>0.1303</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1625</v>
+        <v>0.1962</v>
       </c>
     </row>
     <row r="8">
@@ -965,31 +965,31 @@
         <v>0.5705</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0398</v>
+        <v>0.2843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.056</v>
+        <v>0.3791</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3869</v>
+        <v>0.5454</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3321</v>
+        <v>0.4468</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3204</v>
+        <v>0.4513</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1878</v>
+        <v>0.3753</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0779</v>
+        <v>0.0587</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0578</v>
+        <v>0.0448</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0781</v>
+        <v>0.0874</v>
       </c>
     </row>
     <row r="9">
@@ -1186,58 +1186,58 @@
         <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0501</v>
+        <v>-0.0183</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0511</v>
+        <v>-0.0199</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1825</v>
+        <v>0.2097</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9278</v>
+        <v>-0.881</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2513</v>
+        <v>-0.1909</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.8492</v>
+        <v>-0.8361</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4895</v>
+        <v>-0.4616</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0351</v>
+        <v>-0.0436</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0715</v>
+        <v>-0.0327</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1259</v>
+        <v>0.0695</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0718</v>
+        <v>-0.128</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1573</v>
+        <v>-0.168</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0762</v>
+        <v>-0.0775</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0702</v>
+        <v>-0.0715</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0374</v>
+        <v>-0.0386</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0734</v>
+        <v>-0.0746</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0716</v>
+        <v>-0.0728</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0686</v>
+        <v>-0.0697</v>
       </c>
     </row>
     <row r="13">
@@ -1434,58 +1434,58 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.4471</v>
+        <v>-2.4153</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.9732</v>
+        <v>-2.942</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.1863</v>
+        <v>-3.159</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.8062</v>
+        <v>-3.7594</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.5576</v>
+        <v>-4.4973</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.1794</v>
+        <v>-2.1663</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.502</v>
+        <v>-0.4741</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2504</v>
+        <v>0.1716</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.245</v>
+        <v>-0.3492</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0549</v>
+        <v>-0.3699</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1222</v>
+        <v>-0.2357</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.4576</v>
+        <v>-0.5977</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3208</v>
+        <v>-0.5086</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.4019</v>
+        <v>-0.5026</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.2822</v>
+        <v>-0.2906</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.4974</v>
+        <v>-0.5238</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.5315</v>
+        <v>-0.5601</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.1686</v>
+        <v>-0.1616</v>
       </c>
     </row>
     <row r="17">
@@ -1558,58 +1558,58 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6755</v>
+        <v>0.4768</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0235</v>
+        <v>0.1255</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3194</v>
+        <v>0.1992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3919</v>
+        <v>0.4485</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8018</v>
+        <v>0.7727</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2722</v>
+        <v>-0.2929</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6609</v>
+        <v>-0.72</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1246</v>
+        <v>-0.1187</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1315</v>
+        <v>-0.1321</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1338</v>
+        <v>-0.1336</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.06</v>
+        <v>-0.0597</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.2591</v>
+        <v>-0.2587</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.371</v>
+        <v>-0.3707</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.0168</v>
+        <v>-0.0166</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0096</v>
+        <v>0.0099</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.3135</v>
+        <v>-0.3132</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1934</v>
+        <v>-0.1932</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0382</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="19">
@@ -1806,58 +1806,58 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.0517</v>
+        <v>-0.853</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0181</v>
+        <v>-0.1309</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.729</v>
+        <v>-0.6088</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6593</v>
+        <v>-0.7158</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.096</v>
+        <v>-1.0669</v>
       </c>
       <c r="H22" t="n">
-        <v>0.485</v>
+        <v>0.5057</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7754</v>
+        <v>0.8345</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4335</v>
+        <v>0.4275</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4357</v>
+        <v>0.4364</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2916</v>
+        <v>0.0916</v>
       </c>
       <c r="M22" t="n">
-        <v>0.044</v>
+        <v>0.0438</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2198</v>
+        <v>0.2197</v>
       </c>
       <c r="O22" t="n">
         <v>0.311</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0621</v>
+        <v>-0.062</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1085</v>
+        <v>-0.1082</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2125</v>
+        <v>0.2127</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1052</v>
+        <v>0.1054</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.068</v>
+        <v>-0.0678</v>
       </c>
     </row>
     <row r="23">
@@ -1895,31 +1895,31 @@
         <v>-0.0308</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0107</v>
+        <v>-0.0164</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0131</v>
+        <v>-0.0129</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0146</v>
+        <v>-0.0109</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0179</v>
+        <v>-0.0073</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0246</v>
+        <v>-0.0003</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0403</v>
+        <v>0.0153</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0528</v>
+        <v>0.0273</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0309</v>
+        <v>0.0052</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0301</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="24">
@@ -1957,31 +1957,31 @@
         <v>0.1214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0755</v>
+        <v>0.1038</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0436</v>
+        <v>0.0512</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0165</v>
+        <v>-0.0285</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.129</v>
+        <v>-0.1457</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0546</v>
+        <v>-0.1029</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.0548</v>
+        <v>-0.0785</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.055</v>
+        <v>-0.0557</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.0425</v>
+        <v>-0.0345</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.0304</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="25">
@@ -2019,31 +2019,31 @@
         <v>0.3117</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4146</v>
+        <v>0.199</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3923</v>
+        <v>0.179</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3123</v>
+        <v>0.2077</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2904</v>
+        <v>0.1874</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2399</v>
+        <v>0.1384</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.203</v>
+        <v>0.1029</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1629</v>
+        <v>0.0641</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0896</v>
+        <v>-0.0079</v>
       </c>
       <c r="T25" t="n">
-        <v>0.011</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="26">
@@ -2143,31 +2143,31 @@
         <v>176.1</v>
       </c>
       <c r="L27" t="n">
-        <v>189.3096</v>
+        <v>190.0011</v>
       </c>
       <c r="M27" t="n">
-        <v>192.2453</v>
+        <v>193.124</v>
       </c>
       <c r="N27" t="n">
-        <v>195.2264</v>
+        <v>196.2983</v>
       </c>
       <c r="O27" t="n">
-        <v>198.2538</v>
+        <v>199.5248</v>
       </c>
       <c r="P27" t="n">
-        <v>201.3282</v>
+        <v>202.8043</v>
       </c>
       <c r="Q27" t="n">
-        <v>204.4502</v>
+        <v>206.1377</v>
       </c>
       <c r="R27" t="n">
-        <v>207.6206</v>
+        <v>209.5258</v>
       </c>
       <c r="S27" t="n">
-        <v>210.8402</v>
+        <v>212.9697</v>
       </c>
       <c r="T27" t="n">
-        <v>214.1097</v>
+        <v>216.4702</v>
       </c>
     </row>
     <row r="28">
@@ -2267,31 +2267,31 @@
         <v>-0.0197</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005</v>
+        <v>0.0026</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0006</v>
+        <v>-0.0015</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0024</v>
+        <v>0.0004</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0095</v>
+        <v>0.0075</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0113</v>
+        <v>0.0099</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0115</v>
+        <v>0.0106</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0109</v>
+        <v>0.01</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0092</v>
+        <v>0.0085</v>
       </c>
       <c r="T29" t="n">
-        <v>0.004</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="30">
@@ -2488,58 +2488,58 @@
         <v>49</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1319</v>
+        <v>-0.3306</v>
       </c>
       <c r="D33" t="n">
-        <v>0.047</v>
+        <v>0.196</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1526</v>
+        <v>0.0324</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0841</v>
+        <v>-0.0275</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0153</v>
+        <v>-0.0445</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1322</v>
+        <v>-0.1529</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2642</v>
+        <v>0.2051</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0375</v>
+        <v>-0.0315</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0222</v>
+        <v>0.0216</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0482</v>
+        <v>0.002</v>
       </c>
       <c r="M33" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="P33" t="n">
         <v>0.0019</v>
       </c>
-      <c r="N33" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.0014</v>
-      </c>
       <c r="Q33" t="n">
-        <v>0.0014</v>
+        <v>0.0019</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0045</v>
+        <v>0.0051</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0012</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="34">
@@ -2577,31 +2577,31 @@
         <v>-0.0244</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0135</v>
+        <v>-0.022</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0114</v>
+        <v>-0.0235</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0015</v>
+        <v>-0.0327</v>
       </c>
       <c r="O34" t="n">
-        <v>0.004</v>
+        <v>-0.0295</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0047</v>
+        <v>-0.0281</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0032</v>
+        <v>-0.029</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0116</v>
+        <v>-0.0201</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0197</v>
+        <v>-0.0114</v>
       </c>
       <c r="T34" t="n">
-        <v>0.022</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="35">
@@ -2639,31 +2639,31 @@
         <v>-0.1469</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0345</v>
+        <v>-0.1512</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0186</v>
+        <v>-0.0965</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0657</v>
+        <v>-0.0478</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0736</v>
+        <v>-0.0518</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0006</v>
+        <v>-0.0238</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0001</v>
+        <v>-0.0158</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.0007</v>
+        <v>-0.008</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.0011</v>
+        <v>0.0127</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.0016</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="36">
@@ -2701,31 +2701,31 @@
         <v>0.2571</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0913</v>
+        <v>0.1532</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.1001</v>
+        <v>0.223</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.0314</v>
+        <v>0.1271</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.0652</v>
+        <v>0.0495</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.0898</v>
+        <v>0.0411</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.1116</v>
+        <v>0.076</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.1475</v>
+        <v>-0.0109</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.1423</v>
+        <v>-0.0398</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.0008</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="37">
@@ -2922,58 +2922,58 @@
         <v>49</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0064</v>
+        <v>0.0254</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0077</v>
+        <v>0.0235</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0139</v>
+        <v>0.0134</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0014</v>
+        <v>0.0482</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0085</v>
+        <v>0.0518</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.0061</v>
+        <v>0.007</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0077</v>
+        <v>0.0201</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.0112</v>
+        <v>-0.0899</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0125</v>
+        <v>-0.1168</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0076</v>
+        <v>-0.0639</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0004</v>
+        <v>-0.0559</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0021</v>
+        <v>-0.0086</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0008</v>
+        <v>-0.0006</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0007</v>
+        <v>-0.0006</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0004</v>
+        <v>-0.0009</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0007</v>
+        <v>-0.0005</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0007</v>
+        <v>-0.0005</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0007</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="41">
@@ -3170,58 +3170,58 @@
         <v>49</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.371</v>
+        <v>-0.3392</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.4777</v>
+        <v>-0.4466</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0834</v>
+        <v>-0.0562</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0517</v>
+        <v>0.0985</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2855</v>
+        <v>0.3458</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1564</v>
+        <v>0.1695</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4869</v>
+        <v>0.5147</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0271</v>
+        <v>-0.1058</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0299</v>
+        <v>-0.1341</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2017</v>
+        <v>-0.2232</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0127</v>
+        <v>-0.1009</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0543</v>
+        <v>-0.0859</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0241</v>
+        <v>-0.1638</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.0069</v>
+        <v>-0.1076</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.0225</v>
+        <v>-0.0309</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.0319</v>
+        <v>-0.0583</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.0246</v>
+        <v>-0.0532</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0425</v>
+        <v>0.0495</v>
       </c>
     </row>
     <row r="45">
@@ -3294,58 +3294,58 @@
         <v>49</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0063</v>
+        <v>-0.1924</v>
       </c>
       <c r="D46" t="n">
-        <v>0.009</v>
+        <v>0.158</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0171</v>
+        <v>-0.1031</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0213</v>
+        <v>0.0779</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0133</v>
+        <v>-0.0158</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0299</v>
+        <v>0.0092</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0314</v>
+        <v>-0.0277</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0164</v>
+        <v>0.0223</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0269</v>
+        <v>0.0263</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0013</v>
+        <v>0.0014</v>
       </c>
       <c r="M46" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="T46" t="n">
         <v>0.0006</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0.0004</v>
       </c>
     </row>
     <row r="47">
@@ -3542,58 +3542,58 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1177</v>
+        <v>0.081</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2873</v>
+        <v>-0.4364</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.0273</v>
+        <v>0.0929</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0288</v>
+        <v>-0.0854</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.034</v>
+        <v>-0.0048</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0267</v>
+        <v>-0.006</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0117</v>
+        <v>0.0474</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0055</v>
+        <v>-0.0004</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0272</v>
+        <v>-0.0266</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1992</v>
+        <v>-0.0008</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0004</v>
+        <v>-0.0006</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.0022</v>
+        <v>-0.0023</v>
       </c>
       <c r="O50" t="n">
         <v>-0.0031</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.0021</v>
+        <v>-0.0019</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.001</v>
+        <v>-0.0008</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0007</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="51">
@@ -3631,31 +3631,31 @@
         <v>-0.0285</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0018</v>
+        <v>-0.0253</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0011</v>
+        <v>-0.0248</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0016</v>
+        <v>-0.0239</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0047</v>
+        <v>-0.0204</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0104</v>
+        <v>-0.0144</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0204</v>
+        <v>-0.0046</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0097</v>
+        <v>-0.0158</v>
       </c>
       <c r="S51" t="n">
-        <v>0.0167</v>
+        <v>-0.0091</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0215</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="52">
@@ -3693,31 +3693,31 @@
         <v>0.0123</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.1092</v>
+        <v>-0.0809</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.1036</v>
+        <v>-0.0961</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.0971</v>
+        <v>-0.1091</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.0965</v>
+        <v>-0.1133</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0005</v>
+        <v>-0.0477</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0005</v>
+        <v>-0.0232</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0005</v>
+        <v>-0.0002</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0004</v>
+        <v>0.0084</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0003</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="53">
@@ -3755,31 +3755,31 @@
         <v>-0.0795</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1636</v>
+        <v>-0.052</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1795</v>
+        <v>-0.0338</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1039</v>
+        <v>-0.0008</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0997</v>
+        <v>-0.0033</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0621</v>
+        <v>-0.0394</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.0637</v>
+        <v>-0.0365</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0931</v>
+        <v>-0.0056</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0798</v>
+        <v>-0.0177</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.0001</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="54">
@@ -3879,31 +3879,31 @@
         <v>0.6</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.6915</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>0.8788</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1.0719</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.2709</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1.4761</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1.6875</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.9052</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>2.1295</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>2.3605</v>
       </c>
     </row>
     <row r="56">
@@ -4003,31 +4003,31 @@
         <v>-0.0057</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0084</v>
+        <v>0.006</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.0025</v>
+        <v>-0.0045</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.0022</v>
+        <v>-0.0042</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.0008</v>
+        <v>-0.0028</v>
       </c>
       <c r="P57" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="R57" t="n">
         <v>-0.0005</v>
       </c>
-      <c r="Q57" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.0005</v>
-      </c>
       <c r="S57" t="n">
-        <v>0.0004</v>
+        <v>-0.0004</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="58">
